--- a/BalanceSheet/ENTG_bal.xlsx
+++ b/BalanceSheet/ENTG_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-39337000.0</v>
+        <v>359000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3506000.0</v>
+        <v>324000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1084000.0</v>
+        <v>330000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-37157000.0</v>
+        <v>333000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-18205000.0</v>
+        <v>301000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>287098000.0</v>
@@ -2049,19 +2049,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-28591000.0</v>
+        <v>93000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>30086000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4433000.0</v>
+        <v>70000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>43663000.0</v>
+        <v>80000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-38020000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>84207000.0</v>
@@ -3390,19 +3390,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1581000.0</v>
+        <v>58000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-22208000.0</v>
+        <v>59000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>15817000.0</v>
+        <v>76000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-795000.0</v>
+        <v>60000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-64000.0</v>
+        <v>60000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>71586000.0</v>
@@ -5176,7 +5176,7 @@
         <v>797000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>638000000.0</v>
+        <v>584573000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>655332000.0</v>
@@ -5303,7 +5303,7 @@
         <v>1132000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>990000000.0</v>
+        <v>936484000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>938080000.0</v>
